--- a/training/output/CNN/W/W0_W2.xlsx
+++ b/training/output/CNN/W/W0_W2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5627185314685315</v>
+        <v>0.10625</v>
       </c>
       <c r="B2" t="n">
-        <v>3.002422311089255</v>
+        <v>3.053847849369049</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8225524475524476</v>
+        <v>0.2297916666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>2.284083994952115</v>
+        <v>2.878124535083771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.3285416666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2.049767353317954</v>
+        <v>2.781723260879517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.888548951048951</v>
+        <v>0.3785416666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>1.878925838253715</v>
+        <v>2.752009510993958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.40125</v>
       </c>
       <c r="B6" t="n">
-        <v>1.779624462127686</v>
+        <v>2.681281507015228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.3827083333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1.748098053715446</v>
+        <v>2.63173508644104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.4135416666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.712442089210857</v>
+        <v>2.587165176868439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9027534965034966</v>
+        <v>0.4064583333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>1.653475441715934</v>
+        <v>2.534754455089569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.368125</v>
       </c>
       <c r="B10" t="n">
-        <v>1.630602982911197</v>
+        <v>2.482332944869995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9254807692307693</v>
+        <v>0.3883333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>1.576964540915056</v>
+        <v>2.473468661308289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9226398601398601</v>
+        <v>0.39875</v>
       </c>
       <c r="B12" t="n">
-        <v>1.571755598891865</v>
+        <v>2.418387353420258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.42875</v>
       </c>
       <c r="B13" t="n">
-        <v>1.583968021652915</v>
+        <v>2.41685938835144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.4264583333333333</v>
       </c>
       <c r="B14" t="n">
-        <v>1.561949437314814</v>
+        <v>2.434071660041809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.4439583333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.558892396363345</v>
+        <v>2.348607420921326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.525467211549932</v>
+        <v>2.307189643383026</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9425262237762237</v>
+        <v>0.4539583333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.499753843654286</v>
+        <v>2.244336247444153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.4216666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.571388130838221</v>
+        <v>2.220549583435059</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8970716783216783</v>
+        <v>0.4570833333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.504623234272003</v>
+        <v>2.210501611232758</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9396853146853147</v>
+        <v>0.4566666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.480141032825817</v>
+        <v>2.20845228433609</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9375</v>
+        <v>0.500625</v>
       </c>
       <c r="B21" t="n">
-        <v>1.464613063768907</v>
+        <v>2.195397913455963</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.5175000000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>1.454767015847293</v>
+        <v>2.132045686244965</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.4829166666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.482377447865226</v>
+        <v>2.152433335781097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.504375</v>
       </c>
       <c r="B24" t="n">
-        <v>1.46794745055112</v>
+        <v>2.091682970523834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9375</v>
+        <v>0.4947916666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.443113560026342</v>
+        <v>2.068432927131653</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.5545833333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>1.467729107900099</v>
+        <v>2.047256231307983</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9283216783216783</v>
+        <v>0.5972916666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.464017933065241</v>
+        <v>2.077068865299225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.6375</v>
       </c>
       <c r="B28" t="n">
-        <v>1.47188234871084</v>
+        <v>2.028613209724426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9375</v>
+        <v>0.5979166666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>1.449793858961625</v>
+        <v>1.957208663225174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9289772727272727</v>
+        <v>0.6345833333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>1.452571115710519</v>
+        <v>1.958905518054962</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.6543749999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.426387499679219</v>
+        <v>2.016139477491379</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9453671328671329</v>
+        <v>0.6489583333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>1.446934190663424</v>
+        <v>1.946119427680969</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.673125</v>
       </c>
       <c r="B33" t="n">
-        <v>1.430534698746421</v>
+        <v>1.951621621847153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.6756249999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.436760241335089</v>
+        <v>1.866366505622864</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.6754166666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>1.483964313160289</v>
+        <v>1.831092447042465</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.6956249999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1.42949961532246</v>
+        <v>1.775433987379074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.6679166666666666</v>
       </c>
       <c r="B37" t="n">
-        <v>1.419965321367437</v>
+        <v>1.803823500871658</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.6647916666666667</v>
       </c>
       <c r="B38" t="n">
-        <v>1.428643990646709</v>
+        <v>1.751473605632782</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.6552083333333334</v>
       </c>
       <c r="B39" t="n">
-        <v>1.415707750753923</v>
+        <v>1.840746700763702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.651875</v>
       </c>
       <c r="B40" t="n">
-        <v>1.414304353974082</v>
+        <v>1.789746761322021</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.6502083333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>1.416695497252724</v>
+        <v>1.720442742109299</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.6752083333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>1.424154904755679</v>
+        <v>1.672986894845963</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9289772727272727</v>
+        <v>0.6827083333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>1.412889989939603</v>
+        <v>1.648101150989532</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9289772727272727</v>
+        <v>0.6956249999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>1.424964969808405</v>
+        <v>1.631423205137253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.7160416666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>1.428204216740348</v>
+        <v>1.588671088218689</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9289772727272727</v>
+        <v>0.7683333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>1.411659359931946</v>
+        <v>1.658165842294693</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.7908333333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>1.417181551456451</v>
+        <v>1.610923826694489</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9403409090909091</v>
+        <v>0.8108333333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>1.409263480793346</v>
+        <v>1.553238481283188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.7885416666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>1.410023559223522</v>
+        <v>1.552208304405212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.7885416666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.409107435833324</v>
+        <v>1.498107463121414</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.8114583333333334</v>
       </c>
       <c r="B51" t="n">
-        <v>1.409414757381786</v>
+        <v>1.512064576148987</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.8029166666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>1.410575444048101</v>
+        <v>1.537737607955933</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.8335416666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>1.406496102159674</v>
+        <v>1.502604126930237</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.8335416666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.410673770037564</v>
+        <v>1.463161468505859</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.81875</v>
       </c>
       <c r="B55" t="n">
-        <v>1.417645069685849</v>
+        <v>1.455897927284241</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9375</v>
+        <v>0.8612500000000001</v>
       </c>
       <c r="B56" t="n">
-        <v>1.406982443549416</v>
+        <v>1.457278549671173</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.8689583333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.408873595974662</v>
+        <v>1.399469137191772</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.8639583333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>1.408091203732924</v>
+        <v>1.41535946726799</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.8689583333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.405853564088995</v>
+        <v>1.379508912563324</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.8891666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.404618095267903</v>
+        <v>1.353643596172333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.8766666666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.40551914952018</v>
+        <v>1.413062185049057</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.8714583333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>1.405377236279574</v>
+        <v>1.351118385791779</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.8664583333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.402728546749462</v>
+        <v>1.345118463039398</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8814583333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>1.417375423691489</v>
+        <v>1.364533334970474</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.8916666666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>1.406774748455394</v>
+        <v>1.358378499746323</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.8641666666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.405996100469069</v>
+        <v>1.29988420009613</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.9089583333333333</v>
       </c>
       <c r="B67" t="n">
-        <v>1.402143749323758</v>
+        <v>1.303981840610504</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.8989583333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.404075091535395</v>
+        <v>1.251686632633209</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.8664583333333333</v>
       </c>
       <c r="B69" t="n">
-        <v>1.402681421149861</v>
+        <v>1.277369886636734</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.89625</v>
       </c>
       <c r="B70" t="n">
-        <v>1.403224191882394</v>
+        <v>1.234730005264282</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.8789583333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>1.409264147281647</v>
+        <v>1.210089772939682</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.402460629289801</v>
+        <v>1.184334516525269</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.8964583333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>1.403943739154122</v>
+        <v>1.164943844079971</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.916875</v>
       </c>
       <c r="B74" t="n">
-        <v>1.408299283547835</v>
+        <v>1.164668351411819</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9425262237762237</v>
+        <v>0.8964583333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>1.43459907986901</v>
+        <v>1.205542147159576</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.8939583333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>1.43926217881116</v>
+        <v>1.176783531904221</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.413088305429979</v>
+        <v>1.104742765426636</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.9116666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.407872129570354</v>
+        <v>1.076202899217606</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.418320233171636</v>
+        <v>1.061124414205551</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.9035416666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.404398137872869</v>
+        <v>1.095712035894394</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.8889583333333334</v>
       </c>
       <c r="B81" t="n">
-        <v>1.404995327646082</v>
+        <v>1.102792382240295</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9375</v>
+        <v>0.8989583333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.404012268239802</v>
+        <v>1.070407271385193</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="B83" t="n">
-        <v>1.419839523055337</v>
+        <v>1.012737736105919</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.9164583333333334</v>
       </c>
       <c r="B84" t="n">
-        <v>1.406142890453339</v>
+        <v>0.9870653748512268</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.9291666666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40324930711226</v>
+        <v>1.05115807056427</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9403409090909091</v>
+        <v>0.9139583333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400326078588312</v>
+        <v>1.007775917649269</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B87" t="n">
-        <v>1.406830327077345</v>
+        <v>1.001505002379417</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9375</v>
+        <v>0.9370833333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>1.421477182344957</v>
+        <v>0.9680360108613968</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9226398601398601</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.423952341079712</v>
+        <v>0.982865959405899</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9311625874125874</v>
+        <v>0.9395833333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.401571728966453</v>
+        <v>0.9688214659690857</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9453671328671329</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B91" t="n">
-        <v>1.407113378698176</v>
+        <v>0.9451102167367935</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.948208041958042</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>1.407628969712691</v>
+        <v>0.9210293591022491</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.9520833333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399741324511441</v>
+        <v>0.9190129041671753</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.9395833333333333</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398965207013217</v>
+        <v>0.921637237071991</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9595833333333333</v>
       </c>
       <c r="B95" t="n">
-        <v>1.402806173671376</v>
+        <v>0.9006682187318802</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.400919459082864</v>
+        <v>0.8962312638759613</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9403409090909091</v>
+        <v>0.9495833333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>1.404757488857616</v>
+        <v>0.8938062191009521</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9375</v>
+        <v>0.959375</v>
       </c>
       <c r="B98" t="n">
-        <v>1.39633956822482</v>
+        <v>0.8786163181066513</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9620833333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.403737366199493</v>
+        <v>0.8932370096445084</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.398339824243025</v>
+        <v>0.8739921301603317</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.402798836881464</v>
+        <v>0.8430228978395462</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.8420827835798264</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.8379034847021103</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.8498942106962204</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8534427285194397</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.824805349111557</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8248833268880844</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.8597688376903534</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.833866685628891</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9697916666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.8170803934335709</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.8213356733322144</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8181358426809311</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.8166986703872681</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8041064739227295</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8295415788888931</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8242841064929962</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.8040289133787155</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7946767807006836</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.8035391718149185</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7955387979745865</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7938166856765747</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.8030806481838226</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7977167218923569</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.79251928627491</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.8014719039201736</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.798615425825119</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7891188859939575</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7906501144170761</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.812238022685051</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7904061824083328</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7893214076757431</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7822014093399048</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7766120880842209</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7862094938755035</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7870135605335236</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7842321246862411</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7828662395477295</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7898328602313995</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7790242880582809</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7790639847517014</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7825167775154114</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7829720675945282</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.777971476316452</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7736423909664154</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7627985924482346</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7841460853815079</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7690440565347672</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7653804570436478</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7719356268644333</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7671370357275009</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7658393383026123</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7668076306581497</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7699124068021774</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7630341649055481</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.76030433177948</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7634427547454834</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7555886656045914</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7655751705169678</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7660986632108688</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7662964016199112</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7616589069366455</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7576297074556351</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7605984210968018</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7618945688009262</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7550974488258362</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7685117572546005</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7553030848503113</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7540113180875778</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7531118839979172</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7670077532529831</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.755874440073967</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7454596757888794</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7674653232097626</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9772916666666667</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7668942213058472</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7543251067399979</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7488394528627396</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7598141878843307</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7555524110794067</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7486544996500015</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7490876168012619</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7553417831659317</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7448645979166031</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7616987824440002</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.751605749130249</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7610983699560165</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7462060004472733</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7459069341421127</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7538807094097137</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7429811358451843</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7471111267805099</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7384213507175446</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7394158840179443</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7456451952457428</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7626607716083527</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7449641227722168</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7450637519359589</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7450196892023087</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7611547559499741</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7414432764053345</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9947916666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7471326440572739</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7426220923662186</v>
       </c>
     </row>
   </sheetData>
